--- a/Swapnotory/DataBase And Application/bl_user_role_mst.xlsx
+++ b/Swapnotory/DataBase And Application/bl_user_role_mst.xlsx
@@ -38,7 +38,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>05582</t>
+    <t>SWAPNOTORY49@GMAIL.COM</t>
   </si>
   <si>
     <t>38</t>
@@ -168,7 +168,7 @@
     <col min="1" max="1" width="10.09" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.91" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.18" bestFit="1" customWidth="1"/>
@@ -211,7 +211,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>45230.7449189815</v>
+        <v>45312.7411574074</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -230,7 +230,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>45230.7373726852</v>
+        <v>45312.7411574074</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
